--- a/data/trans_camb/P28B_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28B_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-25,38</t>
+          <t>-19,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-24,0</t>
+          <t>-21,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,09</t>
+          <t>-24,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,99</t>
+          <t>-10,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,56</t>
+          <t>-17,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-18,48</t>
+          <t>-13,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>-13,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-20,58</t>
+          <t>-21,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,35; -13,84</t>
+          <t>-36,98; 3,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,78; -11,99</t>
+          <t>-41,72; -1,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,38; -10,77</t>
+          <t>-44,29; -4,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -2,14</t>
+          <t>-28,13; 7,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 4,63</t>
+          <t>-25,53; 12,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,89; -7,94</t>
+          <t>-34,75; 1,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,5; -10,59</t>
+          <t>-27,09; 0,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -6,81</t>
+          <t>-27,89; -0,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,03; -12,98</t>
+          <t>-34,65; -8,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-74,99%</t>
+          <t>-56,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-70,91%</t>
+          <t>-65,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-68,24%</t>
+          <t>-72,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-41,41%</t>
+          <t>-27,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>-16,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,17%</t>
+          <t>-47,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>-38,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-45,95%</t>
+          <t>-38,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-63,35%</t>
+          <t>-59,07%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-89,92; -49,16</t>
+          <t>-83,57; 14,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,38; -41,54</t>
+          <t>-89,68; -12,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,88; -38,52</t>
+          <t>-93,74; -20,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,5; -7,05</t>
+          <t>-59,54; 38,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 17,83</t>
+          <t>-56,92; 45,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,92; -30,5</t>
+          <t>-76,41; 6,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,27; -36,31</t>
+          <t>-64,93; 3,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,05; -22,99</t>
+          <t>-64,17; 0,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,86; -44,68</t>
+          <t>-80,58; -30,43</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,15</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-20,32</t>
+          <t>-17,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-24,02</t>
+          <t>-18,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-23,61</t>
+          <t>-19,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-27,52</t>
+          <t>-25,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,96</t>
+          <t>-31,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,19</t>
+          <t>-13,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,23</t>
+          <t>-21,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-26,49</t>
+          <t>-25,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 0,52</t>
+          <t>-18,85; 7,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,28; -12,06</t>
+          <t>-27,89; -7,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,57; -15,78</t>
+          <t>-28,86; -7,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,37; -15,95</t>
+          <t>-30,79; -10,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,39; -19,47</t>
+          <t>-36,22; -16,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,51; -19,96</t>
+          <t>-40,95; -22,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,13; -10,89</t>
+          <t>-20,65; -3,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,64; -18,6</t>
+          <t>-28,31; -13,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-31,96; -20,77</t>
+          <t>-31,85; -17,96</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,43%</t>
+          <t>-16,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,89%</t>
+          <t>-48,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-64,9%</t>
+          <t>-51,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,88%</t>
+          <t>-38,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-54,65%</t>
+          <t>-48,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-55,53%</t>
+          <t>-60,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,07%</t>
+          <t>-29,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-55,08%</t>
+          <t>-48,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-60,21%</t>
+          <t>-57,51%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 2,37</t>
+          <t>-46,39; 29,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -34,91</t>
+          <t>-66,89; -22,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,01; -47,89</t>
+          <t>-69,66; -24,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,6; -34,38</t>
+          <t>-54,06; -22,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,02; -42,4</t>
+          <t>-63,34; -33,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,91; -43,13</t>
+          <t>-72,08; -46,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,53; -26,45</t>
+          <t>-43,46; -8,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,43; -45,53</t>
+          <t>-60,03; -34,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,53; -49,93</t>
+          <t>-67,33; -43,94</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,33</t>
+          <t>-10,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,26</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,69</t>
+          <t>-16,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-25,36</t>
+          <t>-25,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-25,58</t>
+          <t>-27,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-25,4</t>
+          <t>-28,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-21,18</t>
+          <t>-18,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-21,3</t>
+          <t>-20,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-23,86</t>
+          <t>-23,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,08; -6,23</t>
+          <t>-22,6; 2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -6,07</t>
+          <t>-24,39; -0,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,59; -13,29</t>
+          <t>-27,47; -5,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,77; -16,75</t>
+          <t>-35,33; -13,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,5; -17,04</t>
+          <t>-37,43; -16,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-34,1; -16,46</t>
+          <t>-38,54; -18,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,85; -14,22</t>
+          <t>-25,86; -10,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,87; -14,98</t>
+          <t>-28,19; -12,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -18,01</t>
+          <t>-30,3; -15,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-45,99%</t>
+          <t>-34,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-45,78%</t>
+          <t>-42,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>-53,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-46,74%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,14%</t>
+          <t>-50,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,81%</t>
+          <t>-52,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-46,46%</t>
+          <t>-43,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-46,71%</t>
+          <t>-48,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-52,33%</t>
+          <t>-53,45%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -17,82</t>
+          <t>-61,05; 10,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,01; -18,75</t>
+          <t>-67,72; 4,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,91; -42,72</t>
+          <t>-73,69; -22,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -33,47</t>
+          <t>-59,54; -28,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,53; -34,24</t>
+          <t>-63,93; -34,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,69; -32,88</t>
+          <t>-67,0; -37,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,71; -34,25</t>
+          <t>-55,24; -25,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,75; -34,4</t>
+          <t>-60,07; -31,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,5; -42,61</t>
+          <t>-64,87; -40,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-19,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-23,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-22,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-23,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-25,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-18,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-21,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-24,71</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,38; -13,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -17,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -17,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,54; -18,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,61; -20,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,79; -14,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-25,41; -17,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-28,43; -21,11</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-64,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-46,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-53,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,66; -21,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,52; -41,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,73; -52,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -37,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,03; -40,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,52; -45,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -35,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -43,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,77; -51,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-9,31</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-16,29</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-18,52</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-20,93</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-23,43</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-28,49</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-15,47</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-20,22</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-24,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 1,18</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-23,08; -9,06</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-25,46; -11,23</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-28,58; -13,86</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-29,78; -15,63</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-35,22; -21,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; -10,22</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-25,43; -14,87</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-28,97; -19,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-27,79%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-48,62%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-55,25%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-41,21%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-46,13%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-56,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-36,19%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-47,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-56,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-44,59; 5,36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-62,18; -28,67</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-67,37; -37,41</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-52,07; -29,19</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-55,37; -33,59</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-64,94; -45,83</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-46,14; -24,6</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-55,44; -37,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-63,57; -47,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
